--- a/home/home_7.xlsx
+++ b/home/home_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,276 +436,46 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>머물자리론</t>
+          <t>해양금융 아카데미</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>사업내용</t>
+          <t>교육개요</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>담당부서</t>
+          <t>모집개요</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>청년 월세 지원</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>「청년월세 한시 특별지원」 사업 시행 알림</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>청년안심 전세보증금반환보증 보증료 지원</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>사업개요</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>신청방법</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>대상자 선정</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>지원절차</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>유의사항</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>청년 전월세 중개보수 지원</t>
+          <t>운영기관</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>목돈 마련이 어려운 청년의 안정적인 주거지원을 위해 임차보증금 대출과 이자를 지원하여
-        청년의 주거생활 안정에 기여</t>
+          <t>지역특화 ‘해양금융’ 실무위주 교육 및 실무담당자와의 만남을 통한 금융인재 양성</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>사업기간 :'23. 2월 ~ 사업비 소진 시까지신청기간 :매월 1일 09:00 ~ 10일 18:00지원대상 :부산시 주민등록이 되어 있는 만19~34세 무주택 청년(신혼부부 제외)소득기준 : 본인(부부합산) 연소득 4천만원 이하※ 소득심사는 협약은행에서 별도 실시대상주택 : 임차보증금 2억원 이하이면서 전월세전환율 6.1%이하※ 건축물 대장상 주택이 아닌 곳은 불가※ 아파트를 제외한 주택유형의 경우 임대인이 신청일 기준 해당 주택 소유기간 3개월 미만인 경우, 보증신청 불가 등 협약은행 내규에 따라 협약은행에서 추가 심사 실시지원내용 :대출이자 연 2.0% 부산시 지원대출금리, 시 지원금리, 본인 부담금리에 대한 표대출금리시 지원금리본인 부담금리비고4.0%2.0%2.0%3.5%2.0%1.5%대출신청일 10.1. 이후대출취급은행 : 부산은행대출최대한도 : 1억원 이내(임차보증금의 90% 범위 내 → 나머지 본인 부담)* 실제 대출가능금액은 금융기관(한국주택금융공사, 부산은행) 제 규정에 따라 다르며, 부산시 자격요건에 해당되어 선정되더라도 부산은행과 한국주택금융공사에서 대출(보증)심사 및 신용평가, 소득심사는 별도 실시하며 그 결과에 따라 제외될 수 있음사업절차계약체결주택계약신청자신청 및 접수부산청년플랫폼  온라인 신청(매월 1~10일)신청자대상자 선정부산시 청년희망정책과(심사)부산시대상자 추천통보선정자, 부산은행 알림(매월말)부산시대출신청관련서류 부산은행 제출신청자대출실행 및 이차보전대출자격 평가 후 대출실행, 이차보전부산은행, 부산시월별 접수계획←→ 표를 가로로 스크롤 해주세요구분, 2월, 3월, 4월, 5월, 6월, 7월, 8월, 9월, 10월, 11월 접수계획에 대한 표구분2월3월4월5월6월신청기간2.1.~2.10.3.1.~3.10.4.1.~4.10.5.1.~5.10.6.1.~6.10.7월8월9월10월11월12월7.1.~7.10.8.1.~8.10.9.1.~9.10.10.1.~10.10.11.1.~11.10.12.1.~12.10.※ 유의사항12월 신청자에 대한 선정자 발표는 2024. 1. 5.(금) 예정신청시기 안내* 신규임차계약 : 잔금일 2024. 1. 15. ~ 2024. 1. 30.* 신규임차계약(대환) : 빠른날(잔금일, 전입일 중) 2023.10.16 ~ 2023.12.10* 갱신임차계약(대환) : 계약갱신일 2023.10.16 ~ 2023.12.10신청기간에는 주말·공휴일 관계없이 접수 가능공고문 유형별 신청시기(p4~5)를 반드시 참고해서 해당 월에 신청상기 신청기간은 사업비 소진에 따라 조기마감 될 수 있음</t>
+          <t>교 육 명 :해양금융 아카데미(Sparos Academy)교육대상 :아래 ① ② 중 하나에 해당하는 미취업 청년(만34세 이하) 
+     ※ 주 30시간 이하 단기 파트타임 근로자의 경우 증빙서류 제출 시 지원 가능① 부산지역 내 대학 졸업생 및 졸업예정자(4학년) 중 금융권 취업을 위한 교육 희망자 
+   ② 등본상 부산 거주자이면서 지역 외 대학 졸업생 및 졸업예정자(4학년) 중 금융권 취업을 위한 교육 희망자교육기간 :2023. 7. 19.(수) ~ 7. 26.(수)교육장소 :아바니 호텔(국제금융센터 옆)지원혜택 :수료증(국제금융진흥원 발급)교육내용 :총 16강, 1일 4시간(14시~18시)이론강의 : 10강(기초 3강, 심화 7강)취업특강 : 2강(금융공기업 입사 전략, 취업 성공 기술)실무전문가 대화 : 4강(한국해양진흥공사, 해양금융종합센터)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>목돈 마련이 어려운 청년의 안정적인 주거지원을 위해 임차보증금 대출과 이자를 지원하여
-        청년의 주거생활 안정에 기여</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>사업기간 :'23. 2월 ~ 사업비 소진 시까지신청기간 :매월 1일 09:00 ~ 10일 18:00지원대상 :부산시 주민등록이 되어 있는 만19~34세 무주택 청년(신혼부부 제외)소득기준 : 본인(부부합산) 연소득 4천만원 이하※ 소득심사는 협약은행에서 별도 실시대상주택 : 임차보증금 2억원 이하이면서 전월세전환율 6.1%이하※ 건축물 대장상 주택이 아닌 곳은 불가※ 아파트를 제외한 주택유형의 경우 임대인이 신청일 기준 해당 주택 소유기간 3개월 미만인 경우, 보증신청 불가 등 협약은행 내규에 따라 협약은행에서 추가 심사 실시지원내용 :대출이자 연 2.0% 부산시 지원대출금리, 시 지원금리, 본인 부담금리에 대한 표대출금리시 지원금리본인 부담금리비고4.0%2.0%2.0%3.5%2.0%1.5%대출신청일 10.1. 이후대출취급은행 : 부산은행대출최대한도 : 1억원 이내(임차보증금의 90% 범위 내 → 나머지 본인 부담)* 실제 대출가능금액은 금융기관(한국주택금융공사, 부산은행) 제 규정에 따라 다르며, 부산시 자격요건에 해당되어 선정되더라도 부산은행과 한국주택금융공사에서 대출(보증)심사 및 신용평가, 소득심사는 별도 실시하며 그 결과에 따라 제외될 수 있음사업절차계약체결주택계약신청자신청 및 접수부산청년플랫폼  온라인 신청(매월 1~10일)신청자대상자 선정부산시 청년희망정책과(심사)부산시대상자 추천통보선정자, 부산은행 알림(매월말)부산시대출신청관련서류 부산은행 제출신청자대출실행 및 이차보전대출자격 평가 후 대출실행, 이차보전부산은행, 부산시월별 접수계획←→ 표를 가로로 스크롤 해주세요구분, 2월, 3월, 4월, 5월, 6월, 7월, 8월, 9월, 10월, 11월 접수계획에 대한 표구분2월3월4월5월6월신청기간2.1.~2.10.3.1.~3.10.4.1.~4.10.5.1.~5.10.6.1.~6.10.7월8월9월10월11월12월7.1.~7.10.8.1.~8.10.9.1.~9.10.10.1.~10.10.11.1.~11.10.12.1.~12.10.※ 유의사항12월 신청자에 대한 선정자 발표는 2024. 1. 5.(금) 예정신청시기 안내* 신규임차계약 : 잔금일 2024. 1. 15. ~ 2024. 1. 30.* 신규임차계약(대환) : 빠른날(잔금일, 전입일 중) 2023.10.16 ~ 2023.12.10* 갱신임차계약(대환) : 계약갱신일 2023.10.16 ~ 2023.12.10신청기간에는 주말·공휴일 관계없이 접수 가능공고문 유형별 신청시기(p4~5)를 반드시 참고해서 해당 월에 신청상기 신청기간은 사업비 소진에 따라 조기마감 될 수 있음</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>신청기간 :2022년 8월 22일 09시 ~ 2023년 8월 21일 24시지원대상 :만 19~34세 이하 부모님과 별도거주 무주택 청년소득기준 : (원가구) 기준 중위소득 100% 이하 &amp; (청년독립가구) 기준 중위소득 60% 이하주택기준 : 임차보증금 5천만원 + 월세 60만원 이하(보증금 월세 환산액과 월세액 합산 70만원 이하)※ 월세 환산액 = 임차보증금 × 2.5% ÷ 12개월지원대상자 여부 자가진단(모의계산) 서비스바로가기지원내용 :생애 1회에 한하여 月 20만원씩 최대 12개월(회) 간 지원※ 실제 납부하는 월세의 최대 20만원까지 지원(임차보증금, 관리비 등 제외)지원방법 :청년 본인 계좌로 현금 지급신청방법 :온라인 : 복지로(https://www.bokjiro.go.kr) 홈페이지 접속바로가기오프라인 : 주소지 관할 주민센터일정’22. 8. 22. ~ ’23. 8. 21. : 신청·접수’22. 10. ~ : 소득재산 조사 및 대상자 결정’22. 11. ~ ’24. 12. : 월세 지급전담 콜센터 운영(LH)1600-0777구·군 문의처←→ 표를 가로로 스크롤 해주세요구군, 면적, 공간활용에 관한 표구군대표전화해당부서구군대표전화해당부서중구051)600-4000051)600-4472해운대구051)749-4000051)749-4832서구051)240-4000051)240-6685사하구051)220-4000051)220-5951동구051)440-4000051)440-4501금정구051)519-4000051)519-4874영도구051)419-4000051)419-4484강서구051)970-4000051)970-4478부산진구051)605-4000051)605-6342연제구051)665-4000051)665-5171동래구051)550-4000051)550-4934수영구051)610-4000051)610-4827남구051)607-4000051)607-3661사상구051)310-4000051)310-5206051)310-4610북구051)309-4000051)309-5171기장군051)051)709-4000051)709-4394</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>부산시에 거주하는 청년들의 주거비 부담을 덜어줌으로써 청년들의 주거독립을 지원하고 지역에서의 정주를 유도</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>부산시가 주관하는 「청년월세 지원사업」은 ‘22년부터 '24년까지 국토부가 주관하는 「청년월세 한시 특별지원」사업으로 대체됩니다.「청년월세 한시 특별지원 사업」은 ’22. 8. 22.부터 '23. 8. 21.까지 신청받을 예정이며 자세한 내용은 사업 매뉴얼를 참고하여 주시기 바랍니다.청년월세 한시 특별지원 사업 매뉴얼※ 제출서류는 매뉴얼 p.8, p.30~ 참고하여 주시기 바랍니다.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>신청기간 :2022년 8월 22일 09시 ~ 2023년 8월 21일 24시지원대상 :만 19~34세 이하 부모님과 별도거주 무주택 청년소득기준 : (원가구) 기준 중위소득 100% 이하 &amp; (청년독립가구) 기준 중위소득 60% 이하주택기준 : 임차보증금 5천만원 + 월세 60만원 이하(보증금 월세 환산액과 월세액 합산 70만원 이하)※ 월세 환산액 = 임차보증금 × 2.5% ÷ 12개월지원대상자 여부 자가진단(모의계산) 서비스바로가기지원내용 :생애 1회에 한하여 月 20만원씩 최대 12개월(회) 간 지원※ 실제 납부하는 월세의 최대 20만원까지 지원(임차보증금, 관리비 등 제외)지원방법 :청년 본인 계좌로 현금 지급신청방법 :온라인 : 복지로(https://www.bokjiro.go.kr) 홈페이지 접속바로가기오프라인 : 주소지 관할 주민센터일정’22. 8. 22. ~ ’23. 8. 21. : 신청·접수’22. 10. ~ : 소득재산 조사 및 대상자 결정’22. 11. ~ ’24. 12. : 월세 지급전담 콜센터 운영(LH)1600-0777구·군 문의처←→ 표를 가로로 스크롤 해주세요구군, 면적, 공간활용에 관한 표구군대표전화해당부서구군대표전화해당부서중구051)600-4000051)600-4472해운대구051)749-4000051)749-4832서구051)240-4000051)240-6685사하구051)220-4000051)220-5951동구051)440-4000051)440-4501금정구051)519-4000051)519-4874영도구051)419-4000051)419-4484강서구051)970-4000051)970-4478부산진구051)605-4000051)605-6342연제구051)665-4000051)665-5171동래구051)550-4000051)550-4934수영구051)610-4000051)610-4827남구051)607-4000051)607-3661사상구051)310-4000051)310-5206051)310-4610북구051)309-4000051)309-5171기장군051)051)709-4000051)709-4394</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>부산시에 거주하는 청년들의 주거비 부담을 덜어줌으로써 청년들의 주거독립을 지원하고 지역에서의 정주를 유도</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>부산시가 주관하는 「청년월세 지원사업」은 ‘22년부터 '24년까지 국토부가 주관하는 「청년월세 한시 특별지원」사업으로 대체됩니다.「청년월세 한시 특별지원 사업」은 ’22. 8. 22.부터 '23. 8. 21.까지 신청받을 예정이며 자세한 내용은 사업 매뉴얼를 참고하여 주시기 바랍니다.청년월세 한시 특별지원 사업 매뉴얼※ 제출서류는 매뉴얼 p.8, p.30~ 참고하여 주시기 바랍니다.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>사회초년생인 청년층의 전세보증금반환보증 가입을 유도하여 전세사기 피해 예방 도모</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>지원내용 :전세보증금반환보증 보증료 지원(최대 30만원)지원대상 :아래 ① ~ ⑤ 기준을 모두 충족하는 자① ’23. 1. 1. 이후 전세보증금금반환보증에 가입② 임차보증금 3억원 이하③ 본인(기혼자는 부부합산) 연소득 5천만원 이하※ 단, 신혼부부*는 7천만원 이하*신청일 기준 혼인신고일이 7년 이내④ 무주택 ※ 주택(분양권 및 입주권 포함)소유자 지원 제외⑤ 18~39세* 청년*신청일 기준. 예) ‘23. 11. 13. 신청: 1983. 11. 14. ～ 2005. 11. 13. 출생지원제외「민간임대주택에 관한 특별법」에 따른 등록임대사업자의 임대주택에 거주하는 임차인임차인이 법인인 경우기타 지자체장이 지원이 적합하지 않다고 판단하는 경우</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>신청기간 :2023. 7. 26.(수) ~신청방법 :온라인 신청신청제출서류▹ 신청일 기준 1개월이내 발급분(④, ⑥~⑧)① 전세보증금반환보증 보증서주택도시보증공사(HUG) : 전세보증금반환보증서한국주택금융공사(HF) : 전세지킴보증서SGI서울보증 : 전세금보장신용보험(개인용)증권② 보증료 영수증주택도시보증공사(HUG) : 보증료 납입영수증한국주택금융공사(HF) : 공사 홈페이지 ‘보증내역/보증료 조회’ 캡처SGI서울보증 : 전세금보장신용보험(개인용) 보험료 영수증※ 가입보증서에 납부금액이 기재되어있는 경우 보증서 제출※ 특약보증, 대출이자, 수수료 등은 지원하지 않음</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>선정기준지원대상 조건을 충족하는 신청자에 대해 지원예산 소진 시까지 신청 순서대로 지원결과통지 :신청일부터 30일 이내 개별문자 전송보증료 지원 :결과통지 후 15일 이내 입금</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>제출된 모든 서류는 반환하지 않으며,기재내용 및 제출서류가 사실과 다른 경우제출서류가 부정확하거나 확인이 불가능한 경우신청서류가 누락되어 있는 경우등에 대해서는 심사제외, 지원취소 등 불이익을 받을 수 있으니 주의하시기 바랍니다.대상자 선정을 위하여 서류 보완을 요청할 수 있으며, 이에 응하지 않을 경우 대상자 선정에서 제외될 수 있습니다.온라인 신청을 권장하며, 부득이 오프라인 신청을 할 경우 서식을 다운받아 작성하여, 제출서류와 함께 부산시청(21F 청년희망정책과)으로 방문하여 주시기 바랍니다.서식다운</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>기타 자세한 사항은 아래의 연락처로 문의하시기 바랍니다.국토교통부 전담 콜센터 ☎ 1599-0001부산광역시 청년희망정책과 ☎ 888-4612</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>신청기간(당초) 2023. 9. 1.(금) 09:00 ~ 9. 30.(토) 18:00(변경) 2023. 9. 7.(목) 18:00※  2023년 청년 전월세 중개보수 지원사업의 예산이 소진되어 조기 마감됨을 알려드립니다.기한 내 신청하였음에도 중개보수료 지원이 되지 않을 수 있음을 양지하여 주시기 바랍니다.지원대상연령 : 신청일 기준 18~34세 이하 청년거주지 : 주민등록상 부산거주* 임대차 계약일 기준 '22. 9. 1. ~ '23. 8. 31.  계약 건에 한해 신청 가능소득기준 : 연 소득 3700만원 이하주택기준 : 임대차 거래금액 2억원 이하의 주거용 주택* 제외대상 : 공공임대주택, 주거용 이외의 시설, 부·모·배우자와 임대차 계약한 자기타 지원 기준은 공고문 참고지원내용 :부동산 전월세 중개보수의 50%, 최대 30만원 지원</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎.051-120)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>주택가격 급등과 동반 상승한 중개보수에 대한 지원을 통해 청년의 경제적 부담경감과 안정적인 정주환경 조성에 기여</t>
+          <t>접수기간 :2023. 6. 26.(월) ~ 7. 7.(금)부산일자리정보망(busanjob.net) 온라인 접수바로가기</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>부산경제진흥원(☎051-600-1883)</t>
         </is>
       </c>
     </row>
